--- a/ConsoleApp1/Sample/4-StatFile.xlsx
+++ b/ConsoleApp1/Sample/4-StatFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>Component Index</x:t>
   </x:si>
@@ -25,13 +25,16 @@
     <x:t>Average Similarity</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file1/, https://example.com/file2/, https://example.com/file3/</x:t>
+    <x:t>Component Count</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file4/, https://example.com/file5/, https://example.com/file6/</x:t>
+    <x:t>7, 8, 9, 10</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file7/, https://example.com/file8/, https://example.com/file9/, https://example.com/file10/</x:t>
+    <x:t>1, 2, 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4, 5, 6</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -382,18 +385,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
+  <x:dimension ref="A1:D4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="17.040625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="99.380625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.140625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.490625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -403,38 +407,50 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>66.1</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>43.5</x:v>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>66.1</x:v>
+        <x:v>43.5</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -685,9 +701,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0595316-D724-4E7D-AB5C-E0AE1B854128}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E84C50B-61DA-4FFD-8AD1-211DEEF34755}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DECA059-3A35-464F-BE61-554F95A3EAFC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC271DE6-489F-4CA1-8AC8-88E91878841B}"/>
 </file>